--- a/Part3-TA-/world 12*/marioGA/Algorithm1_Experiment5.xlsx
+++ b/Part3-TA-/world 12*/marioGA/Algorithm1_Experiment5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyamjain/Desktop/MarioEC/Part3-TA-/world 12*/marioGA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B307372-208D-8449-AE4E-A34146AF33F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A982FE3D-418F-3747-AB1E-56D04C5398CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="2680" windowWidth="38400" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B9643"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9601" workbookViewId="0">
-      <selection activeCell="E9622" sqref="E9622"/>
+      <selection activeCell="G9613" sqref="G9613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
